--- a/Documentation/Working_Documents/Oak_Joystick_BOM.xlsx
+++ b/Documentation/Working_Documents/Oak_Joystick_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 23-05 ATP Joysticks/1A - Joystick - Large/Oak_Compact_Joystick_v0.95/Oak_Compact_Joystick/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33282924-A0FF-4067-97C4-39CA790A486D}"/>
+  <xr:revisionPtr revIDLastSave="465" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FA5EEE-E074-4A34-8C33-FFEFD424FE1C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>Unit Cost</t>
   </si>
@@ -98,18 +98,12 @@
     <t>#4 3/8" screws</t>
   </si>
   <si>
-    <t>Mechanical</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/serpac/6005/307599</t>
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/3m/CT4NT18-M/2721151</t>
   </si>
   <si>
-    <t>M3 hex nut x2</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/keystone-electronics/4708/4499301</t>
   </si>
   <si>
@@ -152,49 +146,16 @@
     <t>(Optional) Topper (+ Collet + Topper Nut)</t>
   </si>
   <si>
-    <t>Custom Printed Circuit Board (PCB)</t>
-  </si>
-  <si>
-    <t>Tools for Assembly</t>
-  </si>
-  <si>
-    <t>Soldering Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solder </t>
-  </si>
-  <si>
-    <t>#3 Philips Screwdriver</t>
-  </si>
-  <si>
-    <t>Flush cutters</t>
-  </si>
-  <si>
-    <t>Wire strippers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Optional for mount adapter) 1/4-20 screw or hex bolt, at least 1/2" long </t>
-  </si>
-  <si>
-    <t>Alternatives (if there are other sources for some parts link them below)</t>
-  </si>
-  <si>
     <t>Part and description</t>
   </si>
   <si>
     <t>Local hardware store</t>
   </si>
   <si>
-    <t>Wire</t>
-  </si>
-  <si>
     <t>https://www.amazon.ca/gp/product/B00GI86MW8</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.ca/en/products/detail/b-f-fastener-supply/MHNZ-003/274973 </t>
-  </si>
-  <si>
-    <t>26 AWG Wire</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.ca/en/products/detail/cnc-tech/1569-26-1-0500-005-1-TS/15853670 </t>
@@ -220,12 +181,6 @@
     <t>JH-D202X-R4 Joystick</t>
   </si>
   <si>
-    <t>Cable tie</t>
-  </si>
-  <si>
-    <t>M3 hex nut</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -256,16 +211,34 @@
     <t>https://www.adafruit.com/product/3102</t>
   </si>
   <si>
-    <t>Multimeter with continuity testing mode</t>
-  </si>
-  <si>
-    <t>Last Updated: 2023-Sep-21</t>
-  </si>
-  <si>
     <t>M3 hex nuts</t>
   </si>
   <si>
     <t>Oak Compact Joystick</t>
+  </si>
+  <si>
+    <t>Hex nut, M3</t>
+  </si>
+  <si>
+    <t>Cable tie, 4"</t>
+  </si>
+  <si>
+    <t>Screw, #4 self-tapping 3/8" length</t>
+  </si>
+  <si>
+    <t>Wire, 26 AWG, 1 ft</t>
+  </si>
+  <si>
+    <t>Last Updated: 2023-Sep-28</t>
+  </si>
+  <si>
+    <t>Alternatives</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Wire, 24 or 26 AWG</t>
   </si>
 </sst>
 </file>
@@ -273,9 +246,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -421,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -535,90 +508,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -906,32 +838,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="89.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:14" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>0</v>
@@ -946,20 +878,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="24">
+        <v>59</v>
+      </c>
+      <c r="I2" s="23">
         <f>SUM(I5:I13,I16:I20)</f>
-        <v>52.2515</v>
+        <v>52.567800000000005</v>
       </c>
       <c r="J2" s="5">
         <f>SUM(J5:J14)+SUM(I16:I20)</f>
-        <v>52.2515</v>
+        <v>52.567799999999998</v>
       </c>
       <c r="K2" s="16">
         <f>SUM(H16:H18)/60</f>
@@ -970,13 +902,13 @@
         <v>63.26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -984,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
@@ -1013,12 +945,12 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1029,18 +961,18 @@
       <c r="F5" s="9">
         <v>7.29</v>
       </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="23">
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
         <f>IF(E5&gt;0,F5/E5,0)</f>
         <v>7.29</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <f>H5*D5</f>
         <v>7.29</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <f>G5*F5</f>
         <v>7.29</v>
       </c>
@@ -1048,12 +980,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1064,7 +996,7 @@
       <c r="F6" s="9">
         <v>31.43</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>1</v>
       </c>
       <c r="H6" s="14">
@@ -1075,7 +1007,7 @@
         <f t="shared" ref="I6:I12" si="1">H6*D6</f>
         <v>31.43</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <f>G6*F6</f>
         <v>31.43</v>
       </c>
@@ -1083,12 +1015,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1099,7 +1031,7 @@
       <c r="F7" s="9">
         <v>0.72</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>1</v>
       </c>
       <c r="H7" s="14">
@@ -1110,20 +1042,20 @@
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <f t="shared" ref="J7:J9" si="2">G7*F7</f>
         <v>0.72</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1131,10 +1063,10 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="26">
         <v>0.63</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>4</v>
       </c>
       <c r="H8" s="14">
@@ -1145,20 +1077,20 @@
         <f t="shared" si="1"/>
         <v>2.52</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <f t="shared" si="2"/>
         <v>2.52</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1166,10 +1098,10 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="26">
         <v>0.17</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>1</v>
       </c>
       <c r="H9" s="14">
@@ -1180,20 +1112,20 @@
         <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1204,7 +1136,7 @@
       <c r="F10" s="9">
         <v>0.27</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <f>IF(E10&gt;0,ROUNDUP(D10/E10,0),0)</f>
         <v>2</v>
       </c>
@@ -1216,20 +1148,20 @@
         <f>H10*D10</f>
         <v>0.54</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <f>G10*F10</f>
         <v>0.54</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1237,10 +1169,10 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="27">
         <v>8</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>1</v>
       </c>
       <c r="H11" s="14">
@@ -1251,12 +1183,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <f t="shared" ref="J11:J12" si="3">G11*F11</f>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F12" s="9"/>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
@@ -1266,26 +1198,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="32"/>
-      <c r="G13" s="21"/>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="26"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="22"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="25">
-        <v>25</v>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="24">
+        <v>30</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1293,50 +1225,50 @@
       <c r="I14" s="15"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="28">
         <v>27.52</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="28">
         <v>130</v>
       </c>
       <c r="H16">
@@ -1345,23 +1277,23 @@
       </c>
       <c r="I16" s="14">
         <f t="shared" ref="I16:I20" si="4">(E16/1000)*$C$14</f>
-        <v>0.68799999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="28">
         <v>27.24</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="28">
         <v>102</v>
       </c>
       <c r="H17">
@@ -1370,15 +1302,15 @@
       </c>
       <c r="I17" s="14">
         <f t="shared" si="4"/>
-        <v>0.68099999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.81719999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1395,310 +1327,225 @@
       </c>
       <c r="I18" s="14">
         <f t="shared" si="4"/>
-        <v>0.21250000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
       <c r="I20" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25" s="26">
+        <v>7.82</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" ref="H25" si="6">IF(E25&gt;0,F25/E25,0)</f>
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" ref="I25" si="7">H25*D25</f>
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="J25" s="21">
+        <f t="shared" ref="J25" si="8">G25*F25</f>
+        <v>7.82</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="11"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37" t="s">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26" s="9">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="G26" s="20">
+        <f>IF(E26&gt;0,ROUNDUP(D26/E26,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="14">
+        <f>IF(E26&gt;0,F26/E26,0)</f>
+        <v>6.3700000000000009E-4</v>
+      </c>
+      <c r="I26" s="14">
+        <f>H26*D26</f>
+        <v>1.2740000000000002E-3</v>
+      </c>
+      <c r="J26" s="21">
+        <f>G26*F26</f>
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
-      </c>
-      <c r="F36" s="32">
-        <v>7.82</v>
-      </c>
-      <c r="G36" s="21">
-        <v>1</v>
-      </c>
-      <c r="H36" s="14">
-        <f t="shared" ref="H36" si="6">IF(E36&gt;0,F36/E36,0)</f>
-        <v>7.8200000000000006E-2</v>
-      </c>
-      <c r="I36" s="14">
-        <f t="shared" ref="I36" si="7">H36*D36</f>
-        <v>0.31280000000000002</v>
-      </c>
-      <c r="J36" s="22">
-        <f t="shared" ref="J36" si="8">G36*F36</f>
-        <v>7.82</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>100</v>
-      </c>
-      <c r="F37" s="9">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="G37" s="21">
-        <f>IF(E37&gt;0,ROUNDUP(D37/E37,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="14">
-        <f>IF(E37&gt;0,F37/E37,0)</f>
-        <v>6.3700000000000009E-4</v>
-      </c>
-      <c r="I37" s="14">
-        <f>H37*D37</f>
-        <v>1.2740000000000002E-3</v>
-      </c>
-      <c r="J37" s="22">
-        <f>G37*F37</f>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J39">
+      <c r="J28">
         <f>15.22+12</f>
         <v>27.22</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40">
+      <c r="K28" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29">
         <v>28.93</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="J41">
+      <c r="K29" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>65</v>
+      <c r="K30" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" xr:uid="{93317371-7A46-4F25-8DA7-5670D74C825A}"/>
     <hyperlink ref="K9" r:id="rId2" xr:uid="{2C0265F2-5E84-4DAD-B328-E5C97F6B3D30}"/>
-    <hyperlink ref="K36" r:id="rId3" xr:uid="{F4AF294C-F8BA-44CB-B481-A76ED38DDA06}"/>
+    <hyperlink ref="K25" r:id="rId3" xr:uid="{F4AF294C-F8BA-44CB-B481-A76ED38DDA06}"/>
     <hyperlink ref="K10" r:id="rId4" xr:uid="{08663F8B-F3C7-4D3A-8591-D087B68C2D2B}"/>
-    <hyperlink ref="K37" r:id="rId5" xr:uid="{D9FE1BA0-A450-4BFE-B273-15114E76A652}"/>
+    <hyperlink ref="K26" r:id="rId5" xr:uid="{D9FE1BA0-A450-4BFE-B273-15114E76A652}"/>
     <hyperlink ref="K6" r:id="rId6" xr:uid="{B1418BD2-5C89-4A2B-A063-E21E0AB08434}"/>
     <hyperlink ref="K8" r:id="rId7" xr:uid="{8784D7E4-FD0A-4BF8-A4D0-3C21D03C33DB}"/>
     <hyperlink ref="K7" r:id="rId8" xr:uid="{0ACE1358-E8F2-46BF-91FB-F853B0D39952}"/>
-    <hyperlink ref="K40" r:id="rId9" xr:uid="{464E463B-1E40-470F-AA52-246103B4A316}"/>
-    <hyperlink ref="K41" r:id="rId10" xr:uid="{A77D9A15-BDB3-4EA2-B95D-BDBB4E105279}"/>
-    <hyperlink ref="K38" r:id="rId11" xr:uid="{57B6657A-7BAD-4175-A23B-D120C3C40C8A}"/>
-    <hyperlink ref="K39" r:id="rId12" xr:uid="{605F5F4B-ABBA-40BE-AA0F-D207C2EA7905}"/>
+    <hyperlink ref="K29" r:id="rId9" xr:uid="{464E463B-1E40-470F-AA52-246103B4A316}"/>
+    <hyperlink ref="K30" r:id="rId10" xr:uid="{A77D9A15-BDB3-4EA2-B95D-BDBB4E105279}"/>
+    <hyperlink ref="K27" r:id="rId11" xr:uid="{57B6657A-7BAD-4175-A23B-D120C3C40C8A}"/>
+    <hyperlink ref="K28" r:id="rId12" xr:uid="{605F5F4B-ABBA-40BE-AA0F-D207C2EA7905}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -1725,6 +1572,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e0d9d996845e2cef65e12e895c4c91e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97eb945ec045b4d52e9ff03a8a8db852" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -1967,15 +1823,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
   <ds:schemaRefs>
@@ -1988,6 +1835,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68775F99-B80C-42A8-929B-E3E95F8A7AE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2004,12 +1859,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/Working_Documents/Oak_Joystick_BOM.xlsx
+++ b/Documentation/Working_Documents/Oak_Joystick_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 23-05 ATP Joysticks/1A - Joystick - Large/Oak_Compact_Joystick_v0.95/Oak_Compact_Joystick/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/Jake/Shared Documents/General/GitHub/Oak-Compact-Joystick/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FA5EEE-E074-4A34-8C33-FFEFD424FE1C}"/>
+  <xr:revisionPtr revIDLastSave="581" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6C033E-3507-4E86-B606-C7DA21A2D67A}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>Unit Cost</t>
   </si>
@@ -140,12 +140,6 @@
     <t>Oak Enclosure Bottom</t>
   </si>
   <si>
-    <t>(Optional) Joystick Camera Mount</t>
-  </si>
-  <si>
-    <t>(Optional) Topper (+ Collet + Topper Nut)</t>
-  </si>
-  <si>
     <t>Part and description</t>
   </si>
   <si>
@@ -159,6 +153,123 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.ca/en/products/detail/cnc-tech/1569-26-1-0500-005-1-TS/15853670 </t>
+  </si>
+  <si>
+    <t>JH-D202X-R4 Joystick</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Exiron-Joystick-Potentiometer-JH-D202X-R2-Thermistor/dp/B07CWWM9WF</t>
+  </si>
+  <si>
+    <t>Exiron - Amazon</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Adafruit/3102?qs=sGAEpiMZZMvI685ayE5Sa%252B6OYvEX%252BIsK80Je2NTqTRGE1%2FJP9iAWgw%3D%3D</t>
+  </si>
+  <si>
+    <t>Adafruit - Mouser</t>
+  </si>
+  <si>
+    <t>Yan's Tools Store - AliExpress</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005003469274285.html</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/3102</t>
+  </si>
+  <si>
+    <t>M3 hex nuts</t>
+  </si>
+  <si>
+    <t>Oak Compact Joystick</t>
+  </si>
+  <si>
+    <t>Hex nut, M3</t>
+  </si>
+  <si>
+    <t>Cable tie, 4"</t>
+  </si>
+  <si>
+    <t>Screw, #4 self-tapping 3/8" length</t>
+  </si>
+  <si>
+    <t>Wire, 26 AWG, 1 ft</t>
+  </si>
+  <si>
+    <t>Alternatives</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Wire, 24 or 26 AWG</t>
+  </si>
+  <si>
+    <t>Oak Topper Collet (Optional)</t>
+  </si>
+  <si>
+    <t>Oak Topper Nut (Optional)</t>
+  </si>
+  <si>
+    <t>Joystick Camera Mount (Optional)</t>
+  </si>
+  <si>
+    <t>Oak Topper Wrench (Optional)</t>
+  </si>
+  <si>
+    <t>Small_Ball Topper</t>
+  </si>
+  <si>
+    <t>Medium_Ball_Topper</t>
+  </si>
+  <si>
+    <t>Large_Ball_Topper</t>
+  </si>
+  <si>
+    <t>Small_Concave_Topper</t>
+  </si>
+  <si>
+    <t>Medium_Concave_Topper</t>
+  </si>
+  <si>
+    <t>Large_Concave_Topper</t>
+  </si>
+  <si>
+    <t>Small_Convex_Topper</t>
+  </si>
+  <si>
+    <t>Medium_Convex_Topper</t>
+  </si>
+  <si>
+    <t>Large_Convex_Topper</t>
+  </si>
+  <si>
+    <t>Small_Goalpost_Topper</t>
+  </si>
+  <si>
+    <t>Medium_Goalpost_Topper</t>
+  </si>
+  <si>
+    <t>Large_Goalpost_Topper</t>
+  </si>
+  <si>
+    <t>Small_Stick_Topper</t>
+  </si>
+  <si>
+    <t>Medium_Stick_Topper</t>
+  </si>
+  <si>
+    <t>Large_Stick_Topper</t>
   </si>
   <si>
     <r>
@@ -176,69 +287,20 @@
       </rPr>
       <t>V1.0</t>
     </r>
-  </si>
-  <si>
-    <t>JH-D202X-R4 Joystick</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>DigiKey</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Exiron-Joystick-Potentiometer-JH-D202X-R2-Thermistor/dp/B07CWWM9WF</t>
-  </si>
-  <si>
-    <t>Exiron - Amazon</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Adafruit/3102?qs=sGAEpiMZZMvI685ayE5Sa%252B6OYvEX%252BIsK80Je2NTqTRGE1%2FJP9iAWgw%3D%3D</t>
-  </si>
-  <si>
-    <t>Adafruit - Mouser</t>
-  </si>
-  <si>
-    <t>Yan's Tools Store - AliExpress</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005003469274285.html</t>
-  </si>
-  <si>
-    <t>Adafruit</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/3102</t>
-  </si>
-  <si>
-    <t>M3 hex nuts</t>
-  </si>
-  <si>
-    <t>Oak Compact Joystick</t>
-  </si>
-  <si>
-    <t>Hex nut, M3</t>
-  </si>
-  <si>
-    <t>Cable tie, 4"</t>
-  </si>
-  <si>
-    <t>Screw, #4 self-tapping 3/8" length</t>
-  </si>
-  <si>
-    <t>Wire, 26 AWG, 1 ft</t>
-  </si>
-  <si>
-    <t>Last Updated: 2023-Sep-28</t>
-  </si>
-  <si>
-    <t>Alternatives</t>
-  </si>
-  <si>
-    <t>Digikey</t>
-  </si>
-  <si>
-    <t>Wire, 24 or 26 AWG</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.2</t>
+    </r>
+  </si>
+  <si>
+    <t>Last Updated: 2024-Oct-07</t>
   </si>
 </sst>
 </file>
@@ -517,7 +579,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
@@ -547,6 +609,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -838,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +927,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>0</v>
@@ -880,18 +944,18 @@
     </row>
     <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I2" s="23">
-        <f>SUM(I5:I13,I16:I20)</f>
-        <v>52.567800000000005</v>
+        <f>SUM(I5:I13,I16:I39)</f>
+        <v>61.117799999999988</v>
       </c>
       <c r="J2" s="5">
-        <f>SUM(J5:J14)+SUM(I16:I20)</f>
-        <v>52.567799999999998</v>
+        <f>SUM(J5:J14)+SUM(I16:I39)</f>
+        <v>61.117800000000003</v>
       </c>
       <c r="K2" s="16">
         <f>SUM(H16:H18)/60</f>
@@ -903,10 +967,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -916,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
@@ -950,7 +1014,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -985,7 +1049,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1017,10 +1081,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1047,15 +1111,15 @@
         <v>0.72</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1087,10 +1151,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1122,10 +1186,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1161,7 +1225,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1212,10 +1276,10 @@
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="24">
         <v>30</v>
       </c>
@@ -1265,7 +1329,7 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="29">
         <v>27.52</v>
       </c>
       <c r="F16" s="28">
@@ -1276,11 +1340,11 @@
         <v>130</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" ref="I16:I20" si="4">(E16/1000)*$C$14</f>
+        <f t="shared" ref="I16:I39" si="4">(E16/1000)*$C$14</f>
         <v>0.8256</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1290,14 +1354,14 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="29">
         <v>27.24</v>
       </c>
       <c r="F17" s="28">
         <v>102</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H18" si="5">F17*D17</f>
+        <f t="shared" ref="H17:H36" si="5">F17*D17</f>
         <v>102</v>
       </c>
       <c r="I17" s="14">
@@ -1305,9 +1369,9 @@
         <v>0.81719999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -1315,7 +1379,7 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="30">
         <v>8.5</v>
       </c>
       <c r="F18">
@@ -1330,222 +1394,667 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
       <c r="I20" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="F21">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="4"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="4"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="4"/>
+        <v>0.26999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="4"/>
+        <v>0.32999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="4"/>
+        <v>0.38999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="4"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>21</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>31</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="4"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
         <v>36</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18" t="s">
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="4"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="4"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>29</v>
+      </c>
+      <c r="F34">
+        <v>75</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="4"/>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>42</v>
+      </c>
+      <c r="F35">
+        <v>102</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="4"/>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>55</v>
+      </c>
+      <c r="F36">
+        <f>2*60+2</f>
+        <v>122</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="4"/>
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="11"/>
+      <c r="I39" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44" s="26">
+        <v>7.82</v>
+      </c>
+      <c r="G44" s="20">
+        <v>1</v>
+      </c>
+      <c r="H44" s="14">
+        <f t="shared" ref="H44" si="6">IF(E44&gt;0,F44/E44,0)</f>
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" ref="I44" si="7">H44*D44</f>
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="J44" s="21">
+        <f t="shared" ref="J44" si="8">G44*F44</f>
+        <v>7.82</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45" s="9">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="G45" s="20">
+        <f>IF(E45&gt;0,ROUNDUP(D45/E45,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="14">
+        <f>IF(E45&gt;0,F45/E45,0)</f>
+        <v>6.3700000000000009E-4</v>
+      </c>
+      <c r="I45" s="14">
+        <f>H45*D45</f>
+        <v>1.2740000000000002E-3</v>
+      </c>
+      <c r="J45" s="21">
+        <f>G45*F45</f>
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="K45" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25" s="26">
-        <v>7.82</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" ref="H25" si="6">IF(E25&gt;0,F25/E25,0)</f>
-        <v>7.8200000000000006E-2</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" ref="I25" si="7">H25*D25</f>
-        <v>0.31280000000000002</v>
-      </c>
-      <c r="J25" s="21">
-        <f t="shared" ref="J25" si="8">G25*F25</f>
-        <v>7.82</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26" s="9">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="G26" s="20">
-        <f>IF(E26&gt;0,ROUNDUP(D26/E26,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="14">
-        <f>IF(E26&gt;0,F26/E26,0)</f>
-        <v>6.3700000000000009E-4</v>
-      </c>
-      <c r="I26" s="14">
-        <f>H26*D26</f>
-        <v>1.2740000000000002E-3</v>
-      </c>
-      <c r="J26" s="21">
-        <f>G26*F26</f>
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="K26" s="8" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28">
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47">
         <f>15.22+12</f>
         <v>27.22</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K47" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29">
+      <c r="J48">
         <v>28.93</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K48" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K49" s="8" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A40:B40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" xr:uid="{93317371-7A46-4F25-8DA7-5670D74C825A}"/>
     <hyperlink ref="K9" r:id="rId2" xr:uid="{2C0265F2-5E84-4DAD-B328-E5C97F6B3D30}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{F4AF294C-F8BA-44CB-B481-A76ED38DDA06}"/>
+    <hyperlink ref="K44" r:id="rId3" xr:uid="{F4AF294C-F8BA-44CB-B481-A76ED38DDA06}"/>
     <hyperlink ref="K10" r:id="rId4" xr:uid="{08663F8B-F3C7-4D3A-8591-D087B68C2D2B}"/>
-    <hyperlink ref="K26" r:id="rId5" xr:uid="{D9FE1BA0-A450-4BFE-B273-15114E76A652}"/>
+    <hyperlink ref="K45" r:id="rId5" xr:uid="{D9FE1BA0-A450-4BFE-B273-15114E76A652}"/>
     <hyperlink ref="K6" r:id="rId6" xr:uid="{B1418BD2-5C89-4A2B-A063-E21E0AB08434}"/>
     <hyperlink ref="K8" r:id="rId7" xr:uid="{8784D7E4-FD0A-4BF8-A4D0-3C21D03C33DB}"/>
     <hyperlink ref="K7" r:id="rId8" xr:uid="{0ACE1358-E8F2-46BF-91FB-F853B0D39952}"/>
-    <hyperlink ref="K29" r:id="rId9" xr:uid="{464E463B-1E40-470F-AA52-246103B4A316}"/>
-    <hyperlink ref="K30" r:id="rId10" xr:uid="{A77D9A15-BDB3-4EA2-B95D-BDBB4E105279}"/>
-    <hyperlink ref="K27" r:id="rId11" xr:uid="{57B6657A-7BAD-4175-A23B-D120C3C40C8A}"/>
-    <hyperlink ref="K28" r:id="rId12" xr:uid="{605F5F4B-ABBA-40BE-AA0F-D207C2EA7905}"/>
+    <hyperlink ref="K48" r:id="rId9" xr:uid="{464E463B-1E40-470F-AA52-246103B4A316}"/>
+    <hyperlink ref="K49" r:id="rId10" xr:uid="{A77D9A15-BDB3-4EA2-B95D-BDBB4E105279}"/>
+    <hyperlink ref="K46" r:id="rId11" xr:uid="{57B6657A-7BAD-4175-A23B-D120C3C40C8A}"/>
+    <hyperlink ref="K47" r:id="rId12" xr:uid="{605F5F4B-ABBA-40BE-AA0F-D207C2EA7905}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -1555,18 +2064,11 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xsi:nil="true"/>
+    <MediaLengthInSeconds xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -1581,10 +2083,10 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e0d9d996845e2cef65e12e895c4c91e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97eb945ec045b4d52e9ff03a8a8db852" ns2:_="" ns3:_="">
-    <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <xsd:import namespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72518c49cc9021390dbba2958e7a3f0c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175092e7cad6d6b91dac7c2ca96d6cf8" ns2:_="" ns3:_="">
+    <xsd:import namespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+    <xsd:import namespace="715913e6-4bf0-458f-8160-f18e142d04ff"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1595,17 +2097,16 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1613,7 +2114,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1638,81 +2139,60 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="715913e6-4bf0-458f-8160-f18e142d04ff" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{230263d0-9f1a-4e63-a49c-f06b563fb00a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b05470fb-f248-421d-a4ae-c1bb0b45488d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="715913e6-4bf0-458f-8160-f18e142d04ff">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -1830,6 +2310,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
     <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1843,14 +2325,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68775F99-B80C-42A8-929B-E3E95F8A7AE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1B2B5D0-F5EC-40E9-A62C-65EFD892C71F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
